--- a/database/Unified Modeling Language (UML)/6.DataflowStructure.xlsx
+++ b/database/Unified Modeling Language (UML)/6.DataflowStructure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t xml:space="preserve">Base URL : 
 APi Dev: </t>
@@ -72,6 +72,38 @@
 in_usersname:"TEXT"
 in_password:"TEXT"
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+status:"Success|Error"
+message:"TEXT"
+data: page
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{page:”INT”}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM is_username_exist(username_param character varying)
+SELECT * FROM is_admin(username_param character varying)
+SELECT * FROM is_user(username_param character varying)
+SELECT * FROM verify_login(username_param character varying, passwowrd_digest_param character varying)
+SELECT * FROM set_online(username_param character varying)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{API_URL}}/owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Log Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -79,31 +111,6 @@
 message:"TEXT"
 data:{object}
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM is_username_exist(username_param character varying)
-SELECT * FROM is_admin(username_param character varying)
-SELECT * FROM is_user(username_param character varying)
-SELECT * FROM verify_login(username_param character varying, passwowrd_digest_param character varying)
-SELECT * FROM set_online(username_param character varying)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{API_URL}}/owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Log Activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -138,6 +145,9 @@
 status:"Success|Error"
 message:"TEXT"
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">SELECT * FROM is_admin(username varchar)
@@ -685,11 +695,11 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.53"/>
@@ -790,7 +800,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -807,22 +817,22 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -832,55 +842,55 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>13</v>
@@ -890,26 +900,26 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="155.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
@@ -919,32 +929,32 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -954,10 +964,10 @@
     </row>
     <row r="11" customFormat="false" ht="127.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>13</v>
@@ -967,26 +977,26 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="127.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -996,26 +1006,26 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>13</v>
@@ -1025,26 +1035,26 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>13</v>
@@ -1054,84 +1064,84 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
@@ -1141,26 +1151,26 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>13</v>
@@ -1170,26 +1180,26 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>13</v>
@@ -1199,108 +1209,108 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
@@ -1311,16 +1321,16 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
